--- a/Document/Usecases/UC-Detail.xlsx
+++ b/Document/Usecases/UC-Detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Usecases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Uescase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>Description</t>
   </si>
@@ -128,18 +122,9 @@
     <t>Cập nhận sản phẩm được khách hàng đặt</t>
   </si>
   <si>
-    <t>Đăng nhập tài khoản được cấp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉ quyền admin được phép sử dụng chức năng </t>
-  </si>
-  <si>
     <t>Log được auto create ở mỗi chức năng</t>
   </si>
   <si>
-    <t>In doanh thu(excel - list)</t>
-  </si>
-  <si>
     <t>Thống kê sản phẩm (excel - chart)</t>
   </si>
   <si>
@@ -149,12 +134,6 @@
     <t>Chi tiết 1 đơn hàng</t>
   </si>
   <si>
-    <t>Thống kê đơn hàng(excel - chart)</t>
-  </si>
-  <si>
-    <t>In tất cả đơn hàng(excel - list)</t>
-  </si>
-  <si>
     <t>excel - list</t>
   </si>
   <si>
@@ -177,6 +156,261 @@
   </si>
   <si>
     <t>Thống kê doanh thu theo loại SP(excel - chart)</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>UC1</t>
+  </si>
+  <si>
+    <t>UC2</t>
+  </si>
+  <si>
+    <t>UC3</t>
+  </si>
+  <si>
+    <t>UC4</t>
+  </si>
+  <si>
+    <t>UC5</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>UC8</t>
+  </si>
+  <si>
+    <t>UC9</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm</t>
+  </si>
+  <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>In tất cả đơn hàng</t>
+  </si>
+  <si>
+    <t>Thống kế đơn hàng</t>
+  </si>
+  <si>
+    <t>In đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>In thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>In thông tin sản phẩm trong kho</t>
+  </si>
+  <si>
+    <t>Thống kế sản phẩm</t>
+  </si>
+  <si>
+    <t>In doanh thu</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu</t>
+  </si>
+  <si>
+    <t>Thống kê doanh thu theo loại SP</t>
+  </si>
+  <si>
+    <t>Quản lý Log</t>
+  </si>
+  <si>
+    <t>In log</t>
+  </si>
+  <si>
+    <t>In danh sách tất cả đơn hàng(excel - list)</t>
+  </si>
+  <si>
+    <t>Thống kê đơn hàng(vẽ biểu đồ excel - chart)</t>
+  </si>
+  <si>
+    <t>In danh sách doanh thu(excel - list)</t>
+  </si>
+  <si>
+    <t>Đăng nhập/đăng xuất tài khoản được cấp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉ quyền supper system manager được phép sử dụng chức năng </t>
+  </si>
+  <si>
+    <t>In danh sách theo lựa chọn tùy theo ngày, tuần</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>System manager</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Supper system manager</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>Basic flow of events</t>
+  </si>
+  <si>
+    <t>Post-condition</t>
+  </si>
+  <si>
+    <t>Truy cập vào website</t>
+  </si>
+  <si>
+    <t>Lấy dữ thông tin các sản phẩm từ CSDL -&gt; Hiển thị lên trang web</t>
+  </si>
+  <si>
+    <t>Xem, đặt hàng và quản lý giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lựa chọn sản phẩm mua </t>
+  </si>
+  <si>
+    <t>Hiển thị form đặt hàng-&gt; Lưu thông tin khác hàng vào DB</t>
+  </si>
+  <si>
+    <t>Truy cập vào giỏ hàng -&gt; Thêm, sửa, xóa sản phẩm đã đặt mua</t>
+  </si>
+  <si>
+    <t>Truy cập vào hệ thống admin</t>
+  </si>
+  <si>
+    <t>Login: Hiển thị form login -&gt; Kiểm tra tài khoản -&gt; truy cập vào hệ thống với quyền đăng nhập tương ứng. Logout: Ngưng sử dụng tài khoản hiện tại -&gt; Quay trở lại trang login</t>
+  </si>
+  <si>
+    <t>Truy cập/ thoát khỏi trang quản trị</t>
+  </si>
+  <si>
+    <t>Login thành công vào hệ thống vơi quyền supper system manager</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý tài khoản -&gt; Hiển thị danh sách cách tài khoản -&gt; Thêm, sửa, xóa tài khoản -&gt; Cập nhập lại danh sách</t>
+  </si>
+  <si>
+    <t>Click icon print danh sách đơn hàng -&gt; Lấy dữ liệu -&gt; kiết xuất excel</t>
+  </si>
+  <si>
+    <t>Click icon thống kê đơn hàng -&gt; Lấy dữ liệu -&gt; vẽ biểu đồ -&gt; kiết xuất excel</t>
+  </si>
+  <si>
+    <t>Click icon prin đơn hàng -&gt; Lấy dữ liệu -&gt; in ra file pdf</t>
+  </si>
+  <si>
+    <t>Login thành công và truy cập vào trang quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Login thành công và truy cập vào trang quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý danh mục -&gt; Hiển thị thông tin các danh mục -&gt; Thêm, sửa, xóa danh mục -&gt; cập nhật dữ liệu</t>
+  </si>
+  <si>
+    <t>Login thành công và truy cập vào trang quản lý sản phẩm</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý sản phẩm -&gt; Hiển thị danh sách sản phẩm (Lọc theo điều kiện) -&gt; Thêm, sửa, xóa sản phẩm -&gt; cập nhật dữ liệu</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý đơn hàng (Lọc theo điều kiện) -&gt; Hiển thị danh sách các đơn hàng -&gt; sửa, xóa đơn hàng -&gt; Cập nhật lại danh sách</t>
+  </si>
+  <si>
+    <t>Quản lý doanh thu</t>
+  </si>
+  <si>
+    <t>Click icon in chi tiết -&gt; Lấy dữ liệu -&gt; in ra file pdf</t>
+  </si>
+  <si>
+    <t>Click icon in danh sách sản phẩm -&gt; Lấy dữ liệu (theo điều kiện lọc)-&gt; kiết xuất excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click icon thống kê sản phẩm -&gt; lấy dữ liệu -&gt; vẽ biểu đồ -&gt; in excel </t>
+  </si>
+  <si>
+    <t>Login thành công và truy cập vào tran quản lý doanh thu</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý -&gt; Chỉnh sửa thông tin -&gt; Cập nhật lại dữ liệu</t>
+  </si>
+  <si>
+    <t>Click icon thống kê doanh thu -&gt; lấy dữ liệu -&gt; kiết xuất excel</t>
+  </si>
+  <si>
+    <t>Click icon in thống kê doanh thu theo sản phẩm -&gt; Lấy dữ liệu (lọc theo điều kiện) -&gt; vẽ biểu đồ -&gt; in file excel</t>
+  </si>
+  <si>
+    <t>Click icon in thống kê doanh thu  -&gt; Lấy dữ liệu (lọc theo điều kiện) -&gt; vẽ biểu đồ -&gt; in file excel</t>
+  </si>
+  <si>
+    <t>Login thành công và truy cập vào trang quản lý log</t>
+  </si>
+  <si>
+    <t>Truy cập vào trang quản lý log</t>
+  </si>
+  <si>
+    <t>Click icon in log -&gt; lấy dữ liệu (lọc theo điều kiện) -&gt; kiết xuất excel</t>
   </si>
 </sst>
 </file>
@@ -323,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -338,6 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -350,12 +587,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,318 +901,596 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A5:A21"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Usecases/UC-Detail.xlsx
+++ b/Document/Usecases/UC-Detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Usecases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Usecases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
   <si>
     <t>Description</t>
   </si>
@@ -411,17 +411,29 @@
   </si>
   <si>
     <t>Click icon in log -&gt; lấy dữ liệu (lọc theo điều kiện) -&gt; kiết xuất excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color </t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>UC-Plan to Done first</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -430,12 +442,21 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +487,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -557,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,9 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,18 +605,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -600,15 +618,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -621,9 +630,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,55 +953,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="42.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="44.25" customWidth="1"/>
+    <col min="9" max="9" width="42.875" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -958,7 +1010,7 @@
       <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -977,15 +1029,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1002,12 +1054,12 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,70 +1077,70 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" s="27" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="24" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1102,16 +1154,16 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1125,16 +1177,16 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1148,16 +1200,16 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1171,81 +1223,81 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2" t="s">
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
       <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1259,16 +1311,16 @@
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1282,16 +1334,16 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="2"/>
@@ -1303,16 +1355,16 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1326,16 +1378,16 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
       <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1349,16 +1401,16 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
       <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1372,118 +1424,150 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="I21" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="20"/>
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="12"/>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="33"/>
+      <c r="B35" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+      <c r="B36" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="B38" s="35" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Document/Usecases/UC-Detail.xlsx
+++ b/Document/Usecases/UC-Detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Usecases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Usecases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>Description</t>
   </si>
@@ -423,6 +423,9 @@
   </si>
   <si>
     <t>UC-Plan to Done first</t>
+  </si>
+  <si>
+    <t>UC-Next</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -442,7 +445,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -450,13 +453,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +502,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -590,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -630,27 +639,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -673,9 +661,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,27 +973,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="44.25" customWidth="1"/>
-    <col min="9" max="9" width="42.875" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="42.85546875" customWidth="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>44</v>
@@ -1000,8 +1020,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1029,12 +1049,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1054,12 +1074,12 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1077,269 +1097,269 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" s="27" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="2" t="s">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="2" t="s">
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2" t="s">
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="2" t="s">
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24" t="s">
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" s="27" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="24" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="24" t="s">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="24"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="2" t="s">
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="2" t="s">
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="9" t="s">
         <v>117</v>
       </c>
@@ -1355,12 +1375,12 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
       <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="9" t="s">
         <v>79</v>
       </c>
@@ -1378,12 +1398,12 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
       <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="9" t="s">
         <v>80</v>
       </c>
@@ -1401,12 +1421,12 @@
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
       <c r="B19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="9" t="s">
         <v>81</v>
       </c>
@@ -1424,63 +1444,63 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24" t="s">
+    <row r="20" spans="1:9" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="24"/>
-    </row>
-    <row r="21" spans="1:9" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24" t="s">
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="24"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>12</v>
       </c>
@@ -1489,7 +1509,7 @@
       </c>
       <c r="C25" s="16"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>14</v>
       </c>
@@ -1498,7 +1518,7 @@
       </c>
       <c r="C26" s="16"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -1507,7 +1527,7 @@
       </c>
       <c r="C27" s="16"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1536,7 @@
       </c>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
@@ -1525,7 +1545,7 @@
       </c>
       <c r="C29" s="16"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>38</v>
       </c>
@@ -1534,39 +1554,45 @@
       </c>
       <c r="C30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C31" s="12"/>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="33"/>
-      <c r="B35" s="29" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="29" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="29" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35" t="s">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
